--- a/biology/Biochimie/4-HO-DiPT/4-HO-DiPT.xlsx
+++ b/biology/Biochimie/4-HO-DiPT/4-HO-DiPT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le 4-HO-DiPT (ou iprocine) est une tryptamine hallucinogène, structurellement proche de la psilocine.
@@ -512,12 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 4-HO-DiPT est découvert par Alexander Shulgin dans les années 1990, et décrit pour la première fois dans son livre TiHKAL: The Continuation[5].
-Il est aujourd'hui considéré comme un NPS, et fait partie des tryptamines de synthèse les plus consommées[6].
-Statut légal
-Il s'agit d'une substance contrôlée en Suède[7], ainsi que dans l'État de Floride[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 4-HO-DiPT est découvert par Alexander Shulgin dans les années 1990, et décrit pour la première fois dans son livre TiHKAL: The Continuation.
+Il est aujourd'hui considéré comme un NPS, et fait partie des tryptamines de synthèse les plus consommées.
 </t>
         </is>
       </c>
@@ -543,16 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Chimie</t>
+          <t>Historique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Structure chimique
-Le 4-HO-DiPT est un dérivé hydroxylé du DiPT, et plus généralement une tryptamine substituée (en), en position R4 par un groupe hydroxy et en positions RN1 et RN2 par deux groupes isopropyle.
-Il a pour formule semi-développée HO-C8H5N-(CH2)2-N(CH(CH3)2)2.
-Synthèse
-Le 4-HO-DiPT est synthétisé à partir de 4-HO-DET (en), d'éther diéthylique, de chlorure d'oxalyle, de diisopropylamine, de chloroforme et d'hydrogénosulfate de sodium[5].
+          <t>Statut légal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une substance contrôlée en Suède, ainsi que dans l'État de Floride.
 </t>
         </is>
       </c>
@@ -578,12 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pharmacologie</t>
+          <t>Chimie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'action pharmacologique du 4-HO-DiPT est encore mal connue et n'a pas fait l'objet d'études (en 2017).
+          <t>Structure chimique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 4-HO-DiPT est un dérivé hydroxylé du DiPT, et plus généralement une tryptamine substituée (en), en position R4 par un groupe hydroxy et en positions RN1 et RN2 par deux groupes isopropyle.
+Il a pour formule semi-développée HO-C8H5N-(CH2)2-N(CH(CH3)2)2.
 </t>
         </is>
       </c>
@@ -609,24 +630,199 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synthèse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 4-HO-DiPT est synthétisé à partir de 4-HO-DET (en), d'éther diéthylique, de chlorure d'oxalyle, de diisopropylamine, de chloroforme et d'hydrogénosulfate de sodium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4-HO-DiPT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/4-HO-DiPT</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'action pharmacologique du 4-HO-DiPT est encore mal connue et n'a pas fait l'objet d'études (en 2017).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4-HO-DiPT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/4-HO-DiPT</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Effets</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets du 4-HO-DiPT se rapprochent de ceux de la psilocine[9] et durent de 2 à 3 heures, ce qui est moins que la plupart des tryptamines[4].
-Effets recherchés
-modification de la perception des couleurs
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets du 4-HO-DiPT se rapprochent de ceux de la psilocine et durent de 2 à 3 heures, ce qui est moins que la plupart des tryptamines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4-HO-DiPT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/4-HO-DiPT</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Effets recherchés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>modification de la perception des couleurs
 hallucinations
 hallucinations auditives
 amélioration de l'humeur, euphorie
-fous rires
-Effets secondaires
-tachycardie
+fous rires</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4-HO-DiPT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/4-HO-DiPT</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>tachycardie
 nausée, vomissements
-dilatation des pupilles
-Conséquences
-Le 4-HO-DiPT étant un NPS, ses conséquences à long terme sur la santé ne sont pas encore connues, et aucune étude n'a encore été menée sur son action pharmacologique ni sur sa toxicité.
+dilatation des pupilles</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4-HO-DiPT</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/4-HO-DiPT</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Conséquences</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 4-HO-DiPT étant un NPS, ses conséquences à long terme sur la santé ne sont pas encore connues, et aucune étude n'a encore été menée sur son action pharmacologique ni sur sa toxicité.
 </t>
         </is>
       </c>
